--- a/alachua/_raw/Florida and Alachua COVID Counts.xlsx
+++ b/alachua/_raw/Florida and Alachua COVID Counts.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CHACKO/Desktop/COVID/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewc\GitHub\covid-florida\alachua\_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E987A062-8B7C-2747-8F91-5B8A6E5B4239}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00848058-62EB-49BF-B6AA-FCDC636B7E1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11140" yWindow="5140" windowWidth="28040" windowHeight="17440" xr2:uid="{8583E734-4981-E84A-98F9-2C95F7A5D68F}"/>
+    <workbookView xWindow="59295" yWindow="975" windowWidth="21600" windowHeight="12855" xr2:uid="{8583E734-4981-E84A-98F9-2C95F7A5D68F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -584,22 +592,22 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="10.875" style="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="17.5" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="1"/>
-    <col min="11" max="11" width="15.1640625" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="1"/>
+    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
@@ -613,7 +621,7 @@
       <c r="I1" s="10"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
@@ -627,7 +635,7 @@
       <c r="I2" s="14"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -641,7 +649,7 @@
       <c r="I3" s="14"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
@@ -655,7 +663,7 @@
       <c r="I4" s="14"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
@@ -669,7 +677,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
@@ -698,7 +706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="4">
         <v>1</v>
       </c>
@@ -713,7 +721,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
       <c r="D11" s="4">
         <v>2</v>
@@ -726,7 +734,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
       <c r="D12" s="4">
         <v>3</v>
@@ -739,7 +747,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
       <c r="D13" s="4">
         <v>4</v>
@@ -752,7 +760,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="D14" s="4">
         <v>5</v>
@@ -766,7 +774,7 @@
       <c r="M14" s="6"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
       <c r="D15" s="4">
         <v>6</v>
@@ -779,7 +787,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
       <c r="D16" s="4">
         <v>7</v>
@@ -792,7 +800,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="4">
         <v>2</v>
       </c>
@@ -807,7 +815,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
       <c r="D18" s="4">
         <v>9</v>
@@ -820,7 +828,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="D19" s="4">
         <v>10</v>
@@ -833,7 +841,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
       <c r="D20" s="4">
         <v>11</v>
@@ -846,7 +854,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
       <c r="D21" s="4">
         <v>12</v>
@@ -859,7 +867,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
       <c r="D22" s="4">
         <v>13</v>
@@ -872,7 +880,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
       <c r="D23" s="4">
         <v>14</v>
@@ -885,7 +893,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" s="4">
         <v>3</v>
       </c>
@@ -900,7 +908,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
       <c r="D25" s="4">
         <v>16</v>
@@ -913,7 +921,7 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
       <c r="D26" s="4">
         <v>17</v>
@@ -926,7 +934,7 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
       <c r="D27" s="4">
         <v>18</v>
@@ -939,7 +947,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
       <c r="D28" s="4">
         <v>19</v>
@@ -952,7 +960,7 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
       <c r="D29" s="4">
         <v>20</v>
@@ -965,7 +973,7 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" s="4"/>
       <c r="D30" s="4">
         <v>21</v>
@@ -978,7 +986,7 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" s="4">
         <v>4</v>
       </c>
@@ -993,7 +1001,7 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" s="4"/>
       <c r="D32" s="4">
         <v>23</v>
@@ -1006,7 +1014,7 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
       <c r="D33" s="4">
         <v>24</v>
@@ -1019,7 +1027,7 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
       <c r="D34" s="4">
         <v>25</v>
@@ -1032,7 +1040,7 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
       <c r="D35" s="4">
         <v>26</v>
@@ -1045,7 +1053,7 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
       <c r="D36" s="4">
         <v>27</v>
@@ -1058,7 +1066,7 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
       <c r="D37" s="4">
         <v>28</v>
@@ -1071,7 +1079,7 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C38" s="4">
         <v>5</v>
       </c>
@@ -1086,7 +1094,7 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C39" s="4"/>
       <c r="D39" s="4">
         <v>30</v>
@@ -1099,7 +1107,7 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C40" s="4"/>
       <c r="D40" s="4">
         <v>31</v>
